--- a/countries.xlsx
+++ b/countries.xlsx
@@ -11,99 +11,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>International Direct Dialling</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Yaounde</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Washington, D.C.</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Brasília</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Abuja</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Berlin</t>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>MONARCH</t>
+  </si>
+  <si>
+    <t>["iPhone 16 Pro Max"]</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>KEEPHONE</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>MAGNETIC LEATHER WALLET</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>HYBRID</t>
+  </si>
+  <si>
+    <t>Samsung S24</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
 </sst>
 </file>
@@ -480,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,131 +457,80 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>237</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>49</v>
+      <c r="G4">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
